--- a/Gavrilov_Buev_ImageToText/Диаграмма.xlsx
+++ b/Gavrilov_Buev_ImageToText/Диаграмма.xlsx
@@ -24,52 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Разработка ТЗ</t>
-  </si>
-  <si>
-    <t>Разработка алгоритмов нейросети</t>
-  </si>
-  <si>
-    <t>Разработка алгоритма для работы с различными языками</t>
-  </si>
-  <si>
-    <t>Разработка алгоритма для работы с различными шрифтами</t>
-  </si>
-  <si>
-    <t>Разработка алгоритма сегментации изображения</t>
-  </si>
-  <si>
-    <t>Разработка интерфейса МП</t>
-  </si>
-  <si>
-    <t>Разработка метода отправки текстового файла на МП</t>
-  </si>
-  <si>
-    <t>Разработка метода отправки изображения на сервер</t>
-  </si>
-  <si>
-    <t>Установка и настройка сервера</t>
-  </si>
-  <si>
-    <t>Разработка настроек МП</t>
-  </si>
-  <si>
-    <t>Тестирование системы</t>
-  </si>
-  <si>
-    <t>Руководство пользователя</t>
-  </si>
-  <si>
-    <t>Рабочая документация</t>
-  </si>
-  <si>
-    <t>Разработка меню МП</t>
-  </si>
-  <si>
-    <t>Разработка программного интерфейса для управления сервером</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Задача</t>
   </si>
@@ -81,13 +36,91 @@
   </si>
   <si>
     <t>Дата окончания</t>
+  </si>
+  <si>
+    <t>Техническое задание</t>
+  </si>
+  <si>
+    <t>Определение сроков работы</t>
+  </si>
+  <si>
+    <t>Документирование</t>
+  </si>
+  <si>
+    <t>Тестирование базы данных</t>
+  </si>
+  <si>
+    <t>Тестирование клиентского приложения.</t>
+  </si>
+  <si>
+    <t>Реализация клиентского приложения</t>
+  </si>
+  <si>
+    <t>Развертка сервера</t>
+  </si>
+  <si>
+    <t>Проектирование интерфейса</t>
+  </si>
+  <si>
+    <t>Определение бюджета</t>
+  </si>
+  <si>
+    <t>Определение функциональных требований</t>
+  </si>
+  <si>
+    <t>Проектирование базы данных</t>
+  </si>
+  <si>
+    <t>Интерфейс администратора</t>
+  </si>
+  <si>
+    <t>Пользовательский интерфейс</t>
+  </si>
+  <si>
+    <t>Настройка сервера</t>
+  </si>
+  <si>
+    <t>Реализация передачи файлов на клиентское приложение</t>
+  </si>
+  <si>
+    <t>Нагрузочное тестирование</t>
+  </si>
+  <si>
+    <t>Тестирование сервера</t>
+  </si>
+  <si>
+    <t>Тестирование</t>
+  </si>
+  <si>
+    <t>Реализация выбора сегмента изображения (форма 3)</t>
+  </si>
+  <si>
+    <t>Реализация функции просмотра файлов пользователя (форма 6)</t>
+  </si>
+  <si>
+    <t>Реализация выбора изображения из библиотеки (форма 4)</t>
+  </si>
+  <si>
+    <t>Реализация функции доступа к камере (форма 2)</t>
+  </si>
+  <si>
+    <t>Реализация функции передачи файлов на сервер (форма 5)</t>
+  </si>
+  <si>
+    <t>Реализация функции авторизации (форма 1).</t>
+  </si>
+  <si>
+    <t>Реализация нейросети</t>
+  </si>
+  <si>
+    <t>Реализация серверной части</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +128,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,14 +157,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -252,63 +298,96 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$16</c:f>
+              <c:f>Лист1!$B$2:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>Разработка ТЗ</c:v>
+                  <c:v>Техническое задание</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Установка и настройка сервера</c:v>
+                  <c:v>Определение сроков работы</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разработка алгоритмов нейросети</c:v>
+                  <c:v>Определение функциональных требований</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Разработка алгоритма для работы с различными языками</c:v>
+                  <c:v>Определение бюджета</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Разработка алгоритма для работы с различными шрифтами</c:v>
+                  <c:v>Проектирование базы данных</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Разработка алгоритма сегментации изображения</c:v>
+                  <c:v>Проектирование интерфейса</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Разработка метода отправки текстового файла на МП</c:v>
+                  <c:v>Интерфейс администратора</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Разработка программного интерфейса для управления сервером</c:v>
+                  <c:v>Пользовательский интерфейс</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Разработка интерфейса МП</c:v>
+                  <c:v>Развертка сервера</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Разработка меню МП</c:v>
+                  <c:v>Настройка сервера</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Разработка метода отправки изображения на сервер</c:v>
+                  <c:v>Реализация серверной части</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Разработка настроек МП</c:v>
+                  <c:v>Реализация передачи файлов на клиентское приложение</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Тестирование системы</c:v>
+                  <c:v>Реализация нейросети</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Руководство пользователя</c:v>
+                  <c:v>Реализация клиентского приложения</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Рабочая документация</c:v>
+                  <c:v>Реализация функции авторизации (форма 1).</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Реализация функции передачи файлов на сервер (форма 5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Реализация функции доступа к камере (форма 2)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Реализация выбора изображения из библиотеки (форма 4)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Реализация функции просмотра файлов пользователя (форма 6)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Реализация выбора сегмента изображения (форма 3)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Тестирование</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Тестирование клиентского приложения.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Тестирование базы данных</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Тестирование сервера</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Нагрузочное тестирование</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Документирование</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$16</c:f>
+              <c:f>Лист1!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>42705</c:v>
                 </c:pt>
@@ -316,43 +395,76 @@
                   <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>42756</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>42816</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>42823</c:v>
+                  <c:v>42763</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>42828</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>42843</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42848</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42853</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42863</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>42866</c:v>
+                  <c:v>42833</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42871</c:v>
+                  <c:v>42840</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42875</c:v>
+                  <c:v>42844</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42890</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42895</c:v>
+                  <c:v>42884</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42889</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42929</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42932</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,77 +496,110 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$16</c:f>
+              <c:f>Лист1!$B$2:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>Разработка ТЗ</c:v>
+                  <c:v>Техническое задание</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Установка и настройка сервера</c:v>
+                  <c:v>Определение сроков работы</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разработка алгоритмов нейросети</c:v>
+                  <c:v>Определение функциональных требований</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Разработка алгоритма для работы с различными языками</c:v>
+                  <c:v>Определение бюджета</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Разработка алгоритма для работы с различными шрифтами</c:v>
+                  <c:v>Проектирование базы данных</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Разработка алгоритма сегментации изображения</c:v>
+                  <c:v>Проектирование интерфейса</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Разработка метода отправки текстового файла на МП</c:v>
+                  <c:v>Интерфейс администратора</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Разработка программного интерфейса для управления сервером</c:v>
+                  <c:v>Пользовательский интерфейс</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Разработка интерфейса МП</c:v>
+                  <c:v>Развертка сервера</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Разработка меню МП</c:v>
+                  <c:v>Настройка сервера</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Разработка метода отправки изображения на сервер</c:v>
+                  <c:v>Реализация серверной части</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Разработка настроек МП</c:v>
+                  <c:v>Реализация передачи файлов на клиентское приложение</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Тестирование системы</c:v>
+                  <c:v>Реализация нейросети</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Руководство пользователя</c:v>
+                  <c:v>Реализация клиентского приложения</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Рабочая документация</c:v>
+                  <c:v>Реализация функции авторизации (форма 1).</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Реализация функции передачи файлов на сервер (форма 5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Реализация функции доступа к камере (форма 2)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Реализация выбора изображения из библиотеки (форма 4)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Реализация функции просмотра файлов пользователя (форма 6)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Реализация выбора сегмента изображения (форма 3)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Тестирование</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Тестирование клиентского приложения.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Тестирование базы данных</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Тестирование сервера</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Нагрузочное тестирование</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Документирование</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$2:$D$16</c:f>
+              <c:f>Лист1!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15</c:v>
@@ -469,22 +614,55 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,107 +692,173 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$B$2:$B$16</c:f>
+              <c:f>Лист1!$B$2:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>Разработка ТЗ</c:v>
+                  <c:v>Техническое задание</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Установка и настройка сервера</c:v>
+                  <c:v>Определение сроков работы</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Разработка алгоритмов нейросети</c:v>
+                  <c:v>Определение функциональных требований</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Разработка алгоритма для работы с различными языками</c:v>
+                  <c:v>Определение бюджета</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Разработка алгоритма для работы с различными шрифтами</c:v>
+                  <c:v>Проектирование базы данных</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Разработка алгоритма сегментации изображения</c:v>
+                  <c:v>Проектирование интерфейса</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Разработка метода отправки текстового файла на МП</c:v>
+                  <c:v>Интерфейс администратора</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Разработка программного интерфейса для управления сервером</c:v>
+                  <c:v>Пользовательский интерфейс</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Разработка интерфейса МП</c:v>
+                  <c:v>Развертка сервера</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Разработка меню МП</c:v>
+                  <c:v>Настройка сервера</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Разработка метода отправки изображения на сервер</c:v>
+                  <c:v>Реализация серверной части</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Разработка настроек МП</c:v>
+                  <c:v>Реализация передачи файлов на клиентское приложение</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Тестирование системы</c:v>
+                  <c:v>Реализация нейросети</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Руководство пользователя</c:v>
+                  <c:v>Реализация клиентского приложения</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Рабочая документация</c:v>
+                  <c:v>Реализация функции авторизации (форма 1).</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Реализация функции передачи файлов на сервер (форма 5)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Реализация функции доступа к камере (форма 2)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Реализация выбора изображения из библиотеки (форма 4)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Реализация функции просмотра файлов пользователя (форма 6)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Реализация выбора сегмента изображения (форма 3)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Тестирование</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Тестирование клиентского приложения.</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Тестирование базы данных</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Тестирование сервера</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Нагрузочное тестирование</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Документирование</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$2:$E$16</c:f>
+              <c:f>Лист1!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>42736</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42746</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>42756</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>42816</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>42823</c:v>
+                  <c:v>42763</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>42793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42818</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>42828</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>42843</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42848</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42853</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42863</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>42866</c:v>
+                  <c:v>42833</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42871</c:v>
+                  <c:v>42840</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42875</c:v>
+                  <c:v>42844</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42890</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42895</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42900</c:v>
+                  <c:v>42889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42894</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42909</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42914</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42924</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42929</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42932</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42935</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42939</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,11 +874,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2074026560"/>
-        <c:axId val="2074031456"/>
+        <c:axId val="-1170025056"/>
+        <c:axId val="-1170050624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2074026560"/>
+        <c:axId val="-1170025056"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -677,7 +921,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074031456"/>
+        <c:crossAx val="-1170050624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -685,10 +929,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074031456"/>
+        <c:axId val="-1170050624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="42900"/>
+          <c:max val="42949"/>
           <c:min val="42705"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -738,7 +982,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074026560"/>
+        <c:crossAx val="-1170025056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="45"/>
@@ -1339,15 +1583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1370,15 +1614,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="B1:E16" totalsRowShown="0">
-  <autoFilter ref="B1:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="B1:E27" totalsRowShown="0">
+  <autoFilter ref="B1:E27"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Задача"/>
+    <tableColumn id="1" name="Задача" dataDxfId="0"/>
     <tableColumn id="2" name="Дата начала" dataDxfId="1">
       <calculatedColumnFormula>E1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Длительность"/>
-    <tableColumn id="4" name="Дата окончания" dataDxfId="0">
+    <tableColumn id="4" name="Дата окончания" dataDxfId="2">
       <calculatedColumnFormula>C2+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1649,15 +1893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="E27" sqref="B1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.28515625" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
@@ -1665,21 +1909,21 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>42705</v>
@@ -1692,235 +1936,412 @@
         <v>42736</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <f>E2</f>
         <v>42736</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E16" si="0">C3+D3</f>
-        <v>42756</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>42746</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C16" si="1">E3</f>
-        <v>42756</v>
+        <v>42746</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>42816</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>42756</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>42816</v>
+        <v>42756</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>42823</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>42823</v>
+        <v>42763</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>42828</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>42828</v>
+        <v>42793</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>42843</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>6</v>
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>42843</v>
+        <v>42808</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>42848</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
+        <v>42813</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>42848</v>
+        <v>42813</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>42853</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
+        <v>42818</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>42853</v>
+        <v>42818</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>42863</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
+        <v>42828</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>42863</v>
+        <v>42828</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>42866</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>7</v>
+        <v>42833</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>42866</v>
+        <v>42833</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>42871</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
+        <v>42840</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>42871</v>
+        <v>42840</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>42875</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>10</v>
+        <v>42844</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>42875</v>
+        <v>42844</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>42890</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>11</v>
+        <v>42874</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>42890</v>
+        <v>42874</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>42895</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
+        <v>42884</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>42895</v>
+        <v>42884</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>42900</v>
+        <v>42889</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C27" si="2">E16</f>
+        <v>42889</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ref="E17:E27" si="3">C17+D17</f>
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
+        <v>42894</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="2"/>
+        <v>42899</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>42904</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="2"/>
+        <v>42904</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>42909</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>42909</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>42914</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>42914</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>42924</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="2"/>
+        <v>42924</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>42929</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="2"/>
+        <v>42929</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
+        <v>42932</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="2"/>
+        <v>42932</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>42935</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
+        <v>42939</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="2"/>
+        <v>42939</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="3"/>
+        <v>42949</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>